--- a/target/classes/com/qa/TestData/testData.xlsx
+++ b/target/classes/com/qa/TestData/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8303BD0D-E2A0-4083-ADA3-335480B9E15A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{893423DC-C60D-4FC0-BABA-3C2EECB52838}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,14 +820,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="55.7109375" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" customWidth="1"/>

--- a/target/classes/com/qa/TestData/testData.xlsx
+++ b/target/classes/com/qa/TestData/testData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{893423DC-C60D-4FC0-BABA-3C2EECB52838}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CBBF8B7B-486F-4A91-8980-E4B8678626C5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -821,17 +821,17 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -897,7 +897,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
